--- a/F.xlsx
+++ b/F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF89D99-7AC0-4436-8277-A25C926B8085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED034FC4-D886-42A4-997B-28485702D762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Absolute Spectral Irradiance</t>
+    <t>irradiance(μW/cm^2/nm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wavelength</t>
+    <t>Wavelength(nm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,13 +363,12 @@
   <dimension ref="A1:B2049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -16767,5 +16766,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>